--- a/NCIC_Schema/NCIC NIEM 1-0Final/docs/Mappings/WantedPersonXMLMapping.xlsx
+++ b/NCIC_Schema/NCIC NIEM 1-0Final/docs/Mappings/WantedPersonXMLMapping.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rap40001.str4.ceti.cjis\home\bwthi\etsu_enterprise_xml\NCIC NIEM 1_0\docs\Mappings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="27810" windowHeight="12015" tabRatio="806" activeTab="6"/>
+    <workbookView xWindow="14060" yWindow="10900" windowWidth="27820" windowHeight="12020" tabRatio="806" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enter" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,12 @@
     <sheet name="Enter - Fraudulent" sheetId="6" r:id="rId6"/>
     <sheet name="Enter - Detainer" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1375,49 +1375,49 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1425,10 +1425,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1436,94 +1436,94 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1531,14 +1531,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,10 +1546,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,7 +1807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1842,7 +1842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2057,15 +2057,15 @@
       <selection activeCell="C27" sqref="A22:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="90.5" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -2127,7 +2127,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>114</v>
@@ -2145,7 +2145,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>114</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="61"/>
       <c r="B10" s="61" t="s">
         <v>325</v>
@@ -2163,7 +2163,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="61"/>
       <c r="B12" s="61" t="s">
         <v>108</v>
@@ -2183,7 +2183,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="61"/>
       <c r="B13" s="61" t="s">
         <v>93</v>
@@ -2192,7 +2192,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="61"/>
       <c r="B14" s="61" t="s">
         <v>329</v>
@@ -2201,7 +2201,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="61"/>
       <c r="B15" s="61" t="s">
         <v>331</v>
@@ -2210,7 +2210,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="61" t="s">
         <v>338</v>
@@ -2219,7 +2219,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="61" t="s">
         <v>339</v>
@@ -2228,7 +2228,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="62" customFormat="1">
       <c r="A18" s="61"/>
       <c r="B18" s="61" t="s">
         <v>373</v>
@@ -2237,7 +2237,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="61" t="s">
         <v>334</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="61"/>
       <c r="B20" s="61" t="s">
         <v>340</v>
@@ -2257,7 +2257,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="61"/>
       <c r="B21" s="61" t="s">
         <v>341</v>
@@ -2266,7 +2266,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="61" t="s">
         <v>136</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="61"/>
       <c r="B23" s="61" t="s">
         <v>117</v>
@@ -2286,7 +2286,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="61"/>
       <c r="B24" s="61" t="s">
         <v>344</v>
@@ -2295,7 +2295,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="61"/>
       <c r="B25" s="61" t="s">
         <v>345</v>
@@ -2304,7 +2304,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="61"/>
       <c r="B26" s="61" t="s">
         <v>115</v>
@@ -2313,7 +2313,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="61"/>
       <c r="B27" s="61" t="s">
         <v>116</v>
@@ -2322,7 +2322,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="25" t="s">
         <v>121</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
         <v>122</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>123</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
         <v>124</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
         <v>125</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
         <v>126</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
         <v>127</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
         <v>136</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
         <v>128</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="23" t="s">
         <v>26</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>17</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>20</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
         <v>146</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>23</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>148</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>289</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>150</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>31</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>36</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="15" customHeight="1">
       <c r="A47" s="31" t="s">
         <v>39</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>42</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
         <v>44</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="9" t="s">
         <v>46</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="36">
       <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
         <v>52</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
         <v>55</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
         <v>58</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
         <v>61</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
         <v>64</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
         <v>66</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
         <v>69</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
         <v>72</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
         <v>75</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
         <v>78</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
         <v>81</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>34</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15" customHeight="1">
       <c r="A64" s="14" t="s">
         <v>182</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="9" t="s">
         <v>31</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="48">
       <c r="A66" s="9" t="s">
         <v>49</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
         <v>52</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
         <v>66</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="25" t="s">
         <v>93</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="36">
       <c r="A70" s="9" t="s">
         <v>94</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="9" t="s">
         <v>96</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="9" t="s">
         <v>99</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
         <v>101</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="9" t="s">
         <v>104</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="9" t="s">
         <v>106</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="33" t="s">
         <v>108</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="9" t="s">
         <v>155</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="9" t="s">
         <v>109</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="9" t="s">
         <v>112</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="9" t="s">
         <v>159</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15" customHeight="1">
       <c r="A81" s="36" t="s">
         <v>186</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>84</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>87</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>90</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="25" t="s">
         <v>161</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="9" t="s">
         <v>164</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="9" t="s">
         <v>163</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="9" t="s">
         <v>162</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="25" t="s">
         <v>170</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
         <v>171</v>
@@ -2993,7 +2993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="25" t="s">
         <v>172</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="9" t="s">
         <v>173</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="9" t="s">
         <v>174</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="9" t="s">
         <v>175</v>
       </c>
@@ -3037,7 +3037,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3045,19 +3050,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="90.5" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -3077,7 +3082,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -3088,7 +3093,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -3110,7 +3115,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24">
       <c r="A6" s="12"/>
       <c r="B6" s="61" t="s">
         <v>10</v>
@@ -3119,7 +3124,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3133,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>114</v>
@@ -3137,7 +3142,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>194</v>
       </c>
@@ -3148,7 +3153,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>187</v>
       </c>
@@ -3159,7 +3164,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>188</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>189</v>
       </c>
@@ -3181,7 +3186,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>114</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="61"/>
       <c r="B14" s="61" t="s">
         <v>325</v>
@@ -3199,7 +3204,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="61"/>
       <c r="B15" s="61" t="s">
         <v>108</v>
@@ -3208,7 +3213,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="61" t="s">
         <v>93</v>
@@ -3217,7 +3222,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="61" t="s">
         <v>329</v>
@@ -3226,7 +3231,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="61"/>
       <c r="B18" s="61" t="s">
         <v>331</v>
@@ -3235,7 +3240,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
         <v>220</v>
       </c>
@@ -3246,7 +3251,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>115</v>
@@ -3255,7 +3260,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="23" t="s">
         <v>26</v>
       </c>
@@ -3264,7 +3269,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
@@ -3275,7 +3280,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>150</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="36">
       <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>61</v>
       </c>
@@ -3339,7 +3344,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="25" t="s">
         <v>93</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
@@ -3381,7 +3386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
         <v>104</v>
       </c>
@@ -3392,7 +3397,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="33" t="s">
         <v>108</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
         <v>109</v>
       </c>
@@ -3412,7 +3417,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
         <v>112</v>
       </c>
@@ -3423,7 +3428,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="36" t="s">
         <v>186</v>
       </c>
@@ -3432,7 +3437,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="8" t="s">
         <v>87</v>
       </c>
@@ -3443,7 +3448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="25" t="s">
         <v>170</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
         <v>171</v>
@@ -3461,11 +3466,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:3" ht="15" customHeight="1"/>
+    <row r="42" spans="1:3" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3477,15 +3487,15 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="18.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="90.5" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="4" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
@@ -3505,7 +3515,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -3516,7 +3526,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -3527,7 +3537,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -3538,7 +3548,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="62" customFormat="1">
       <c r="A6" s="61"/>
       <c r="B6" s="61" t="s">
         <v>354</v>
@@ -3547,7 +3557,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>351</v>
@@ -3556,7 +3566,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
         <v>207</v>
       </c>
@@ -3565,7 +3575,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>114</v>
@@ -3574,7 +3584,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="29" t="s">
         <v>208</v>
       </c>
@@ -3583,7 +3593,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="62" customFormat="1">
       <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>209</v>
@@ -3592,7 +3602,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>114</v>
@@ -3601,7 +3611,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="29" t="s">
         <v>114</v>
       </c>
@@ -3610,7 +3620,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="31"/>
       <c r="B14" s="28" t="s">
         <v>209</v>
@@ -3619,7 +3629,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="62" customFormat="1">
       <c r="A15" s="31"/>
       <c r="B15" s="28" t="s">
         <v>325</v>
@@ -3628,7 +3638,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="62" customFormat="1">
       <c r="A16" s="61" t="s">
         <v>212</v>
       </c>
@@ -3639,7 +3649,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="62" customFormat="1">
       <c r="A17" s="61" t="s">
         <v>215</v>
       </c>
@@ -3650,7 +3660,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="62" customFormat="1">
       <c r="A18" s="31" t="s">
         <v>218</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="62" customFormat="1">
       <c r="A19" s="31"/>
       <c r="B19" s="28" t="s">
         <v>358</v>
@@ -3670,7 +3680,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="62" customFormat="1">
       <c r="A20" s="61" t="s">
         <v>224</v>
       </c>
@@ -3681,7 +3691,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="61" t="s">
         <v>14</v>
       </c>
@@ -3692,7 +3702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="62" customFormat="1">
       <c r="A22" s="61"/>
       <c r="B22" s="61" t="s">
         <v>211</v>
@@ -3701,7 +3711,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="62" customFormat="1">
       <c r="A23" s="31" t="s">
         <v>229</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="62" customFormat="1">
       <c r="A24" s="31"/>
       <c r="B24" s="28" t="s">
         <v>364</v>
@@ -3721,7 +3731,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="62" customFormat="1">
       <c r="A25" s="31" t="s">
         <v>232</v>
       </c>
@@ -3732,7 +3742,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="62" customFormat="1">
       <c r="A26" s="31" t="s">
         <v>250</v>
       </c>
@@ -3743,7 +3753,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="62" customFormat="1">
       <c r="A27" s="61"/>
       <c r="B27" s="61" t="s">
         <v>108</v>
@@ -3752,7 +3762,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="62" customFormat="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61" t="s">
         <v>93</v>
@@ -3761,7 +3771,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="62" customFormat="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61" t="s">
         <v>370</v>
@@ -3770,7 +3780,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="62" customFormat="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61" t="s">
         <v>371</v>
@@ -3779,7 +3789,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="62" customFormat="1">
       <c r="A31" s="31"/>
       <c r="B31" s="28" t="s">
         <v>372</v>
@@ -3788,7 +3798,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="62" customFormat="1">
       <c r="A32" s="61"/>
       <c r="B32" s="61" t="s">
         <v>387</v>
@@ -3797,7 +3807,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="62" customFormat="1">
       <c r="A33" s="61"/>
       <c r="B33" s="61" t="s">
         <v>388</v>
@@ -3806,7 +3816,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="62" customFormat="1">
       <c r="A34" s="61"/>
       <c r="B34" s="61" t="s">
         <v>383</v>
@@ -3815,7 +3825,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="62" customFormat="1">
       <c r="A35" s="61"/>
       <c r="B35" s="61" t="s">
         <v>384</v>
@@ -3824,7 +3834,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="62" customFormat="1">
       <c r="A36" s="61"/>
       <c r="B36" s="61" t="s">
         <v>373</v>
@@ -3833,7 +3843,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="62" customFormat="1">
       <c r="A37" s="61"/>
       <c r="B37" s="61" t="s">
         <v>381</v>
@@ -3842,7 +3852,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="62" customFormat="1">
       <c r="A38" s="61"/>
       <c r="B38" s="61" t="s">
         <v>382</v>
@@ -3851,7 +3861,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="62" customFormat="1">
       <c r="A39" s="61"/>
       <c r="B39" s="61" t="s">
         <v>374</v>
@@ -3860,7 +3870,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="62" customFormat="1">
       <c r="A40" s="61" t="s">
         <v>223</v>
       </c>
@@ -3871,7 +3881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="61" t="s">
         <v>220</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="62" customFormat="1">
       <c r="A42" s="61"/>
       <c r="B42" s="61" t="s">
         <v>378</v>
@@ -3891,7 +3901,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="62" customFormat="1">
       <c r="A43" s="61"/>
       <c r="B43" s="61" t="s">
         <v>379</v>
@@ -3900,7 +3910,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="62" customFormat="1">
       <c r="A44" s="61" t="s">
         <v>136</v>
       </c>
@@ -3911,7 +3921,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="62" customFormat="1" ht="24">
       <c r="A45" s="61"/>
       <c r="B45" s="61" t="s">
         <v>380</v>
@@ -3920,7 +3930,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="62" customFormat="1" ht="24">
       <c r="A46" s="61"/>
       <c r="B46" s="61" t="s">
         <v>377</v>
@@ -3929,7 +3939,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="62" customFormat="1" ht="24">
       <c r="A47" s="61"/>
       <c r="B47" s="61" t="s">
         <v>376</v>
@@ -3938,7 +3948,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="62" customFormat="1" ht="24">
       <c r="A48" s="61" t="s">
         <v>136</v>
       </c>
@@ -3949,7 +3959,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>117</v>
@@ -3958,7 +3968,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
         <v>225</v>
@@ -3967,7 +3977,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>227</v>
@@ -3976,7 +3986,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="62" customFormat="1">
       <c r="A52" s="61"/>
       <c r="B52" s="61" t="s">
         <v>385</v>
@@ -3985,7 +3995,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="62" customFormat="1">
       <c r="A53" s="61"/>
       <c r="B53" s="61" t="s">
         <v>386</v>
@@ -3994,7 +4004,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="61"/>
       <c r="B54" s="9" t="s">
         <v>115</v>
@@ -4003,7 +4013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="61"/>
       <c r="B55" s="9" t="s">
         <v>116</v>
@@ -4012,7 +4022,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
         <v>391</v>
@@ -4021,7 +4031,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="14" t="s">
         <v>280</v>
       </c>
@@ -4030,7 +4040,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
         <v>122</v>
       </c>
@@ -4041,7 +4051,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
         <v>123</v>
       </c>
@@ -4052,7 +4062,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
         <v>124</v>
       </c>
@@ -4063,7 +4073,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
         <v>125</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
         <v>126</v>
       </c>
@@ -4085,7 +4095,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
         <v>127</v>
       </c>
@@ -4096,7 +4106,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
         <v>128</v>
       </c>
@@ -4107,7 +4117,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="25" t="s">
         <v>26</v>
       </c>
@@ -4116,7 +4126,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="61" t="s">
         <v>238</v>
       </c>
@@ -4127,7 +4137,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
         <v>17</v>
       </c>
@@ -4138,7 +4148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
         <v>20</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="61" t="s">
         <v>23</v>
       </c>
@@ -4160,7 +4170,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
         <v>146</v>
       </c>
@@ -4171,7 +4181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
         <v>392</v>
@@ -4180,7 +4190,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="9" t="s">
         <v>237</v>
       </c>
@@ -4191,7 +4201,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="62" customFormat="1">
       <c r="A73" s="14" t="s">
         <v>394</v>
       </c>
@@ -4200,7 +4210,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="61" t="s">
         <v>236</v>
       </c>
@@ -4211,7 +4221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="14" t="s">
         <v>233</v>
       </c>
@@ -4220,7 +4230,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="62" customFormat="1">
       <c r="A76" s="28" t="s">
         <v>234</v>
       </c>
@@ -4231,7 +4241,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="9" t="s">
         <v>27</v>
       </c>
@@ -4242,7 +4252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="14" t="s">
         <v>148</v>
       </c>
@@ -4251,7 +4261,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="9" t="s">
         <v>8</v>
       </c>
@@ -4262,7 +4272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="62" customFormat="1">
       <c r="A80" s="14" t="s">
         <v>242</v>
       </c>
@@ -4271,7 +4281,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" s="62" customFormat="1">
       <c r="A81" s="9" t="s">
         <v>205</v>
       </c>
@@ -4282,7 +4292,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="24">
       <c r="A82" s="9" t="s">
         <v>201</v>
       </c>
@@ -4293,7 +4303,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
         <v>204</v>
       </c>
@@ -4304,7 +4314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="14" t="s">
         <v>243</v>
       </c>
@@ -4313,7 +4323,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="39" t="s">
         <v>245</v>
       </c>
@@ -4324,7 +4334,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="9" t="s">
         <v>244</v>
       </c>
@@ -4335,7 +4345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="14" t="s">
         <v>249</v>
       </c>
@@ -4344,7 +4354,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="9" t="s">
         <v>250</v>
       </c>
@@ -4355,7 +4365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="14" t="s">
         <v>150</v>
       </c>
@@ -4364,7 +4374,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="9" t="s">
         <v>31</v>
       </c>
@@ -4375,7 +4385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
         <v>36</v>
       </c>
@@ -4386,7 +4396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="31" t="s">
         <v>39</v>
       </c>
@@ -4397,7 +4407,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="9" t="s">
         <v>42</v>
       </c>
@@ -4408,7 +4418,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="9" t="s">
         <v>44</v>
       </c>
@@ -4419,7 +4429,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="9" t="s">
         <v>46</v>
       </c>
@@ -4430,7 +4440,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="36">
       <c r="A96" s="9" t="s">
         <v>49</v>
       </c>
@@ -4441,7 +4451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="9" t="s">
         <v>52</v>
       </c>
@@ -4452,7 +4462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="9" t="s">
         <v>55</v>
       </c>
@@ -4463,7 +4473,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="9" t="s">
         <v>58</v>
       </c>
@@ -4474,7 +4484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="9" t="s">
         <v>61</v>
       </c>
@@ -4485,7 +4495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="9" t="s">
         <v>64</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="9" t="s">
         <v>66</v>
       </c>
@@ -4507,7 +4517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="9" t="s">
         <v>69</v>
       </c>
@@ -4518,7 +4528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="9" t="s">
         <v>72</v>
       </c>
@@ -4529,7 +4539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="9" t="s">
         <v>75</v>
       </c>
@@ -4540,7 +4550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="9" t="s">
         <v>78</v>
       </c>
@@ -4551,7 +4561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="9" t="s">
         <v>252</v>
       </c>
@@ -4562,7 +4572,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="9" t="s">
         <v>266</v>
       </c>
@@ -4573,7 +4583,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="9" t="s">
         <v>254</v>
       </c>
@@ -4584,7 +4594,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="9" t="s">
         <v>255</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="9" t="s">
         <v>256</v>
       </c>
@@ -4606,7 +4616,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="9" t="s">
         <v>81</v>
       </c>
@@ -4617,7 +4627,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="9" t="s">
         <v>34</v>
       </c>
@@ -4628,7 +4638,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="14" t="s">
         <v>267</v>
       </c>
@@ -4637,7 +4647,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="9" t="s">
         <v>31</v>
       </c>
@@ -4648,7 +4658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="28"/>
       <c r="B116" s="9" t="s">
         <v>268</v>
@@ -4657,7 +4667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="28" t="s">
         <v>274</v>
       </c>
@@ -4668,7 +4678,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="28" t="s">
         <v>27</v>
       </c>
@@ -4679,7 +4689,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="28" t="s">
         <v>151</v>
       </c>
@@ -4690,7 +4700,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="28" t="s">
         <v>153</v>
       </c>
@@ -4701,7 +4711,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="9" t="s">
         <v>46</v>
       </c>
@@ -4712,7 +4722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="36">
       <c r="A122" s="9" t="s">
         <v>49</v>
       </c>
@@ -4723,7 +4733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="9" t="s">
         <v>58</v>
       </c>
@@ -4734,7 +4744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="9" t="s">
         <v>69</v>
       </c>
@@ -4745,7 +4755,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="9" t="s">
         <v>220</v>
       </c>
@@ -4756,7 +4766,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" s="62" customFormat="1">
       <c r="A126" s="14" t="s">
         <v>395</v>
       </c>
@@ -4765,7 +4775,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" s="62" customFormat="1">
       <c r="A127" s="61" t="s">
         <v>31</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="62" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" s="62" customFormat="1" ht="36">
       <c r="A128" s="61" t="s">
         <v>49</v>
       </c>
@@ -4787,7 +4797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" s="62" customFormat="1">
       <c r="A129" s="61" t="s">
         <v>52</v>
       </c>
@@ -4798,7 +4808,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" s="62" customFormat="1">
       <c r="A130" s="61" t="s">
         <v>66</v>
       </c>
@@ -4809,7 +4819,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="14" t="s">
         <v>278</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="9" t="s">
         <v>31</v>
       </c>
@@ -4829,7 +4839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="9" t="s">
         <v>36</v>
       </c>
@@ -4840,7 +4850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="9" t="s">
         <v>151</v>
       </c>
@@ -4851,7 +4861,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="9" t="s">
         <v>153</v>
       </c>
@@ -4862,7 +4872,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="36">
       <c r="A136" s="9" t="s">
         <v>183</v>
       </c>
@@ -4873,7 +4883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="9" t="s">
         <v>52</v>
       </c>
@@ -4884,7 +4894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="9" t="s">
         <v>55</v>
       </c>
@@ -4895,7 +4905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="9" t="s">
         <v>66</v>
       </c>
@@ -4906,7 +4916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="14" t="s">
         <v>279</v>
       </c>
@@ -4915,7 +4925,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="36">
       <c r="A141" s="9" t="s">
         <v>94</v>
       </c>
@@ -4926,7 +4936,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="9" t="s">
         <v>96</v>
       </c>
@@ -4937,7 +4947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="9" t="s">
         <v>99</v>
       </c>
@@ -4948,7 +4958,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="9" t="s">
         <v>101</v>
       </c>
@@ -4959,7 +4969,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="9" t="s">
         <v>104</v>
       </c>
@@ -4970,7 +4980,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="9" t="s">
         <v>106</v>
       </c>
@@ -4981,7 +4991,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="63" t="s">
         <v>396</v>
       </c>
@@ -4990,7 +5000,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="9" t="s">
         <v>155</v>
       </c>
@@ -5001,7 +5011,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="9" t="s">
         <v>109</v>
       </c>
@@ -5012,7 +5022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="9" t="s">
         <v>112</v>
       </c>
@@ -5023,7 +5033,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="9" t="s">
         <v>159</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="63" t="s">
         <v>397</v>
       </c>
@@ -5043,7 +5053,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="9" t="s">
         <v>84</v>
       </c>
@@ -5054,7 +5064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="9" t="s">
         <v>87</v>
       </c>
@@ -5065,7 +5075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="9" t="s">
         <v>90</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="25" t="s">
         <v>161</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="9" t="s">
         <v>164</v>
       </c>
@@ -5096,7 +5106,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="9" t="s">
         <v>162</v>
       </c>
@@ -5107,7 +5117,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="25" t="s">
         <v>170</v>
       </c>
@@ -5116,7 +5126,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="9"/>
       <c r="B160" s="9" t="s">
         <v>171</v>
@@ -5125,7 +5135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="9" t="s">
         <v>291</v>
       </c>
@@ -5136,7 +5146,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="25" t="s">
         <v>172</v>
       </c>
@@ -5145,7 +5155,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="9" t="s">
         <v>173</v>
       </c>
@@ -5156,7 +5166,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="9" t="s">
         <v>174</v>
       </c>
@@ -5167,7 +5177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="29" t="s">
         <v>390</v>
       </c>
@@ -5176,7 +5186,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="9" t="s">
         <v>282</v>
       </c>
@@ -5187,7 +5197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="9" t="s">
         <v>281</v>
       </c>
@@ -5198,7 +5208,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="9" t="s">
         <v>284</v>
       </c>
@@ -5209,7 +5219,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" s="62" customFormat="1">
       <c r="A169" s="61"/>
       <c r="B169" s="61" t="s">
         <v>404</v>
@@ -5218,7 +5228,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="9" t="s">
         <v>283</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="29" t="s">
         <v>401</v>
       </c>
@@ -5238,7 +5248,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" s="62" customFormat="1">
       <c r="A172" s="61" t="s">
         <v>234</v>
       </c>
@@ -5249,7 +5259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" s="62" customFormat="1">
       <c r="A173" s="61" t="s">
         <v>27</v>
       </c>
@@ -5260,7 +5270,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="9" t="s">
         <v>230</v>
       </c>
@@ -5277,7 +5287,12 @@
     <mergeCell ref="A152:B152"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5289,14 +5304,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="79.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="79.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5307,7 +5322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -5316,7 +5331,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -5327,7 +5342,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -5338,7 +5353,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -5349,7 +5364,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="12"/>
       <c r="B6" s="49" t="s">
         <v>300</v>
@@ -5358,7 +5373,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="12"/>
       <c r="B7" s="49" t="s">
         <v>297</v>
@@ -5367,7 +5382,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="64" t="s">
         <v>300</v>
       </c>
@@ -5376,7 +5391,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9"/>
       <c r="B9" s="53" t="s">
         <v>301</v>
@@ -5385,7 +5400,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="64" t="s">
         <v>297</v>
       </c>
@@ -5394,7 +5409,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>302</v>
@@ -5403,7 +5418,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>301</v>
       </c>
@@ -5412,7 +5427,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>299</v>
@@ -5421,7 +5436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>302</v>
       </c>
@@ -5430,7 +5445,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>325</v>
@@ -5439,7 +5454,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
         <v>220</v>
       </c>
@@ -5450,7 +5465,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -5459,7 +5474,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -5470,7 +5485,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="51" t="s">
         <v>299</v>
       </c>
@@ -5479,7 +5494,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="B20" s="27" t="s">
         <v>298</v>
       </c>
@@ -5487,7 +5502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
         <v>150</v>
       </c>
@@ -5502,6 +5517,11 @@
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5513,13 +5533,13 @@
       <selection activeCell="C47" sqref="C47:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="45.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5530,7 +5550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -5539,7 +5559,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -5550,7 +5570,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -5561,7 +5581,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -5572,7 +5592,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="12"/>
       <c r="B6" s="61" t="s">
         <v>10</v>
@@ -5581,7 +5601,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -5590,7 +5610,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>114</v>
@@ -5599,7 +5619,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>114</v>
       </c>
@@ -5608,7 +5628,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="61"/>
       <c r="B10" s="61" t="s">
         <v>325</v>
@@ -5617,7 +5637,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -5628,7 +5648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="61"/>
       <c r="B12" s="61" t="s">
         <v>108</v>
@@ -5637,7 +5657,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="61"/>
       <c r="B13" s="61" t="s">
         <v>93</v>
@@ -5646,7 +5666,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="61"/>
       <c r="B14" s="61" t="s">
         <v>329</v>
@@ -5655,7 +5675,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="61"/>
       <c r="B15" s="61" t="s">
         <v>331</v>
@@ -5664,7 +5684,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="61" t="s">
         <v>338</v>
@@ -5673,7 +5693,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="61" t="s">
         <v>339</v>
@@ -5682,7 +5702,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="62" customFormat="1" ht="24">
       <c r="A18" s="61"/>
       <c r="B18" s="61" t="s">
         <v>373</v>
@@ -5691,7 +5711,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="61" t="s">
         <v>418</v>
       </c>
@@ -5702,7 +5722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="61"/>
       <c r="B20" s="61" t="s">
         <v>340</v>
@@ -5711,7 +5731,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="61"/>
       <c r="B21" s="61" t="s">
         <v>341</v>
@@ -5720,7 +5740,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="62" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="62" customFormat="1" ht="24">
       <c r="A22" s="61" t="s">
         <v>136</v>
       </c>
@@ -5731,7 +5751,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="61"/>
       <c r="B23" s="61" t="s">
         <v>117</v>
@@ -5740,7 +5760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="61"/>
       <c r="B24" s="61" t="s">
         <v>344</v>
@@ -5749,7 +5769,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="61"/>
       <c r="B25" s="61" t="s">
         <v>345</v>
@@ -5758,7 +5778,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="61"/>
       <c r="B26" s="61" t="s">
         <v>115</v>
@@ -5767,7 +5787,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="61"/>
       <c r="B27" s="61" t="s">
         <v>116</v>
@@ -5776,7 +5796,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="52" t="s">
         <v>121</v>
       </c>
@@ -5785,7 +5805,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
         <v>122</v>
       </c>
@@ -5796,7 +5816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>123</v>
       </c>
@@ -5807,7 +5827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
         <v>124</v>
       </c>
@@ -5818,7 +5838,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
         <v>125</v>
       </c>
@@ -5829,7 +5849,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
         <v>126</v>
       </c>
@@ -5840,7 +5860,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
         <v>127</v>
       </c>
@@ -5851,7 +5871,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="24">
       <c r="A35" s="9" t="s">
         <v>128</v>
       </c>
@@ -5862,7 +5882,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="23" t="s">
         <v>26</v>
       </c>
@@ -5871,7 +5891,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="24">
       <c r="A37" s="8" t="s">
         <v>17</v>
       </c>
@@ -5882,7 +5902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="24">
       <c r="A38" s="8" t="s">
         <v>20</v>
       </c>
@@ -5893,7 +5913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
         <v>146</v>
       </c>
@@ -5904,7 +5924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
         <v>23</v>
       </c>
@@ -5915,7 +5935,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
         <v>148</v>
       </c>
@@ -5924,7 +5944,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="24">
       <c r="A42" s="9" t="s">
         <v>289</v>
       </c>
@@ -5935,7 +5955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
         <v>150</v>
       </c>
@@ -5944,7 +5964,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
         <v>31</v>
       </c>
@@ -5955,7 +5975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
         <v>36</v>
       </c>
@@ -5966,7 +5986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="31" t="s">
         <v>39</v>
       </c>
@@ -5977,7 +5997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="9" t="s">
         <v>42</v>
       </c>
@@ -5988,7 +6008,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
         <v>44</v>
       </c>
@@ -5999,7 +6019,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
         <v>46</v>
       </c>
@@ -6010,7 +6030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="36">
       <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
@@ -6021,7 +6041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
         <v>52</v>
       </c>
@@ -6032,7 +6052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="24">
       <c r="A52" s="9" t="s">
         <v>55</v>
       </c>
@@ -6043,7 +6063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
         <v>58</v>
       </c>
@@ -6054,7 +6074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
@@ -6065,7 +6085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
         <v>64</v>
       </c>
@@ -6076,7 +6096,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
         <v>66</v>
       </c>
@@ -6087,7 +6107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
         <v>69</v>
       </c>
@@ -6098,7 +6118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
         <v>72</v>
       </c>
@@ -6109,7 +6129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -6120,7 +6140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
         <v>78</v>
       </c>
@@ -6131,7 +6151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="24">
       <c r="A61" s="9" t="s">
         <v>81</v>
       </c>
@@ -6142,7 +6162,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
         <v>34</v>
       </c>
@@ -6153,7 +6173,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="14" t="s">
         <v>182</v>
       </c>
@@ -6162,7 +6182,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
         <v>31</v>
       </c>
@@ -6173,7 +6193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="48">
       <c r="A65" s="9" t="s">
         <v>49</v>
       </c>
@@ -6184,7 +6204,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="9" t="s">
         <v>52</v>
       </c>
@@ -6195,7 +6215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
         <v>66</v>
       </c>
@@ -6206,7 +6226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="52" t="s">
         <v>93</v>
       </c>
@@ -6215,7 +6235,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="36">
       <c r="A69" s="9" t="s">
         <v>94</v>
       </c>
@@ -6226,7 +6246,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
         <v>96</v>
       </c>
@@ -6237,7 +6257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="9" t="s">
         <v>99</v>
       </c>
@@ -6248,7 +6268,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="9" t="s">
         <v>101</v>
       </c>
@@ -6259,7 +6279,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
         <v>104</v>
       </c>
@@ -6270,7 +6290,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="9" t="s">
         <v>106</v>
       </c>
@@ -6281,7 +6301,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="33" t="s">
         <v>108</v>
       </c>
@@ -6290,7 +6310,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="9" t="s">
         <v>155</v>
       </c>
@@ -6301,7 +6321,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="24">
       <c r="A77" s="9" t="s">
         <v>109</v>
       </c>
@@ -6312,7 +6332,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
@@ -6323,7 +6343,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="9" t="s">
         <v>159</v>
       </c>
@@ -6334,7 +6354,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="36" t="s">
         <v>186</v>
       </c>
@@ -6343,7 +6363,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="8" t="s">
         <v>84</v>
       </c>
@@ -6354,7 +6374,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="8" t="s">
         <v>87</v>
       </c>
@@ -6365,7 +6385,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="24">
       <c r="A83" s="8" t="s">
         <v>90</v>
       </c>
@@ -6376,7 +6396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="52" t="s">
         <v>161</v>
       </c>
@@ -6385,7 +6405,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="9" t="s">
         <v>164</v>
       </c>
@@ -6396,7 +6416,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="9" t="s">
         <v>163</v>
       </c>
@@ -6407,7 +6427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="24">
       <c r="A87" s="9" t="s">
         <v>162</v>
       </c>
@@ -6418,7 +6438,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="52" t="s">
         <v>170</v>
       </c>
@@ -6427,7 +6447,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="s">
         <v>171</v>
@@ -6436,7 +6456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="52" t="s">
         <v>172</v>
       </c>
@@ -6445,7 +6465,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
         <v>173</v>
       </c>
@@ -6456,7 +6476,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="9" t="s">
         <v>238</v>
       </c>
@@ -6467,7 +6487,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="9" t="s">
         <v>175</v>
       </c>
@@ -6480,6 +6500,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6491,14 +6516,14 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="54.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6509,7 +6534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -6518,7 +6543,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -6529,7 +6554,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -6540,7 +6565,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -6551,7 +6576,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="12"/>
       <c r="B6" s="49" t="s">
         <v>300</v>
@@ -6560,7 +6585,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="12"/>
       <c r="B7" s="49" t="s">
         <v>297</v>
@@ -6569,7 +6594,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="64" t="s">
         <v>300</v>
       </c>
@@ -6578,7 +6603,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9"/>
       <c r="B9" s="53" t="s">
         <v>301</v>
@@ -6587,7 +6612,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="64" t="s">
         <v>297</v>
       </c>
@@ -6596,7 +6621,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>302</v>
@@ -6605,7 +6630,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>301</v>
       </c>
@@ -6614,7 +6639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="61"/>
       <c r="B13" s="61" t="s">
         <v>329</v>
@@ -6623,7 +6648,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="61"/>
       <c r="B14" s="61" t="s">
         <v>331</v>
@@ -6632,7 +6657,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>115</v>
@@ -6641,7 +6666,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>302</v>
       </c>
@@ -6650,7 +6675,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="61" t="s">
         <v>325</v>
@@ -6659,7 +6684,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
         <v>220</v>
       </c>
@@ -6670,7 +6695,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="12"/>
       <c r="B19" s="9" t="s">
         <v>115</v>
@@ -6679,7 +6704,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="23" t="s">
         <v>26</v>
       </c>
@@ -6688,7 +6713,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
@@ -6699,7 +6724,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="51" t="s">
         <v>299</v>
       </c>
@@ -6708,7 +6733,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="27" t="s">
         <v>298</v>
       </c>
@@ -6716,7 +6741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="14" t="s">
         <v>150</v>
       </c>
@@ -6725,7 +6750,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="36">
       <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
@@ -6736,7 +6761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="14" t="s">
         <v>182</v>
       </c>
@@ -6745,7 +6770,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
@@ -6756,7 +6781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="36">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -6767,7 +6792,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
         <v>52</v>
       </c>
@@ -6778,7 +6803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>66</v>
       </c>
@@ -6789,7 +6814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="36" t="s">
         <v>186</v>
       </c>
@@ -6798,7 +6823,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
         <v>84</v>
       </c>
@@ -6809,7 +6834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
         <v>87</v>
       </c>
@@ -6820,7 +6845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="24">
       <c r="A34" s="8" t="s">
         <v>90</v>
       </c>
@@ -6831,7 +6856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="52" t="s">
         <v>303</v>
       </c>
@@ -6840,7 +6865,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
         <v>171</v>
@@ -6849,7 +6874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="52" t="s">
         <v>304</v>
       </c>
@@ -6858,7 +6883,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
         <v>171</v>
@@ -6873,6 +6898,11 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6880,18 +6910,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6902,7 +6932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -6911,7 +6941,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -6922,7 +6952,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -6933,7 +6963,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -6944,7 +6974,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="12"/>
       <c r="B6" s="49" t="s">
         <v>300</v>
@@ -6953,7 +6983,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="12"/>
       <c r="B7" s="49" t="s">
         <v>297</v>
@@ -6962,7 +6992,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="64" t="s">
         <v>300</v>
       </c>
@@ -6971,7 +7001,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9"/>
       <c r="B9" s="53" t="s">
         <v>301</v>
@@ -6980,7 +7010,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="64" t="s">
         <v>297</v>
       </c>
@@ -6989,7 +7019,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>302</v>
@@ -6998,7 +7028,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>301</v>
       </c>
@@ -7007,7 +7037,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="61"/>
       <c r="B13" s="61" t="s">
         <v>325</v>
@@ -7016,7 +7046,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>302</v>
       </c>
@@ -7025,7 +7055,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="61"/>
       <c r="B15" s="61" t="s">
         <v>325</v>
@@ -7034,7 +7064,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="61" t="s">
         <v>220</v>
       </c>
@@ -7045,7 +7075,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="12"/>
       <c r="B17" s="61" t="s">
         <v>115</v>
@@ -7054,7 +7084,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>412</v>
       </c>
@@ -7063,7 +7093,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -7074,7 +7104,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="51" t="s">
         <v>305</v>
       </c>
@@ -7083,7 +7113,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="39" t="s">
         <v>245</v>
       </c>
@@ -7094,7 +7124,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
         <v>244</v>
       </c>
@@ -7105,7 +7135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
         <v>306</v>
       </c>
@@ -7114,7 +7144,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="36">
       <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
@@ -7125,7 +7155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="54" t="s">
         <v>303</v>
       </c>
@@ -7134,7 +7164,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
         <v>171</v>
@@ -7143,7 +7173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>390</v>
       </c>
@@ -7152,7 +7182,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
         <v>282</v>
       </c>
@@ -7163,7 +7193,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
         <v>281</v>
       </c>
@@ -7174,7 +7204,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>284</v>
       </c>
@@ -7185,7 +7215,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="61"/>
       <c r="B31" s="61" t="s">
         <v>414</v>
@@ -7194,7 +7224,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
         <v>283</v>
       </c>
@@ -7211,5 +7241,10 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>